--- a/New Microsoft Excel Worksheet.xlsx
+++ b/New Microsoft Excel Worksheet.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>name</t>
   </si>
@@ -87,6 +87,15 @@
   </si>
   <si>
     <t>gender</t>
+  </si>
+  <si>
+    <t>mobile no</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>age</t>
   </si>
 </sst>
 </file>
@@ -425,15 +434,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -446,8 +455,17 @@
       <c r="D1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -458,7 +476,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -472,7 +490,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -483,7 +501,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -494,7 +512,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -505,7 +523,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -516,7 +534,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>

--- a/New Microsoft Excel Worksheet.xlsx
+++ b/New Microsoft Excel Worksheet.xlsx
@@ -437,7 +437,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -489,6 +489,12 @@
       <c r="D3" t="s">
         <v>22</v>
       </c>
+      <c r="E3">
+        <v>977</v>
+      </c>
+      <c r="G3">
+        <v>77</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -500,6 +506,12 @@
       <c r="C4" t="s">
         <v>17</v>
       </c>
+      <c r="E4">
+        <v>343</v>
+      </c>
+      <c r="G4">
+        <v>66</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -511,6 +523,12 @@
       <c r="C5" t="s">
         <v>18</v>
       </c>
+      <c r="E5">
+        <v>34</v>
+      </c>
+      <c r="G5">
+        <v>55</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -522,6 +540,12 @@
       <c r="C6" t="s">
         <v>13</v>
       </c>
+      <c r="E6">
+        <v>78</v>
+      </c>
+      <c r="G6">
+        <v>44</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -533,6 +557,12 @@
       <c r="C7" t="s">
         <v>19</v>
       </c>
+      <c r="E7">
+        <v>234</v>
+      </c>
+      <c r="G7">
+        <v>44</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -543,6 +573,12 @@
       </c>
       <c r="C8" t="s">
         <v>17</v>
+      </c>
+      <c r="E8">
+        <v>5677</v>
+      </c>
+      <c r="G8">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/New Microsoft Excel Worksheet.xlsx
+++ b/New Microsoft Excel Worksheet.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
   <si>
     <t>name</t>
   </si>
@@ -96,6 +96,9 @@
   </si>
   <si>
     <t>age</t>
+  </si>
+  <si>
+    <t>f</t>
   </si>
 </sst>
 </file>
@@ -434,15 +437,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -465,7 +468,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -476,7 +479,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -496,7 +499,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -513,7 +516,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -530,7 +533,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -547,7 +550,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -564,7 +567,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -579,6 +582,41 @@
       </c>
       <c r="G8">
         <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K10" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
